--- a/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-53,62</t>
+          <t>-36,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-58,55</t>
+          <t>-47,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-47,21</t>
+          <t>-34,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-33,78</t>
+          <t>-38,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-44,67</t>
+          <t>-34,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-40,45</t>
+          <t>-53,49</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-43,13</t>
+          <t>-37,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-51,99</t>
+          <t>-41,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-44,06</t>
+          <t>-44,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -40,19</t>
+          <t>-48,03; -26,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-70,98; -45,61</t>
+          <t>-60,11; -34,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-57,94; -36,41</t>
+          <t>-47,91; -22,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -22,67</t>
+          <t>-50,39; -25,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,38; -32,34</t>
+          <t>-47,07; -24,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-52,21; -25,84</t>
+          <t>-65,0; -43,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -34,53</t>
+          <t>-46,02; -28,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -42,27</t>
+          <t>-49,85; -32,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -35,15</t>
+          <t>-52,95; -36,67</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-53,62%</t>
+          <t>-36,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-58,55%</t>
+          <t>-47,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,21%</t>
+          <t>-34,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-33,78%</t>
+          <t>-38,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-44,67%</t>
+          <t>-34,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,45%</t>
+          <t>-53,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-43,13%</t>
+          <t>-37,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-51,99%</t>
+          <t>-41,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-44,06%</t>
+          <t>-44,18%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -40,19</t>
+          <t>-48,03; -26,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,98; -45,61</t>
+          <t>-60,11; -34,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,94; -36,41</t>
+          <t>-47,91; -22,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -22,67</t>
+          <t>-50,39; -25,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,38; -32,34</t>
+          <t>-47,07; -24,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,21; -25,84</t>
+          <t>-65,0; -43,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -34,53</t>
+          <t>-46,02; -28,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -42,27</t>
+          <t>-49,85; -32,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -35,15</t>
+          <t>-52,95; -36,67</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-36,92</t>
+          <t>-53,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-47,84</t>
+          <t>-58,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-34,41</t>
+          <t>-47,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-38,03</t>
+          <t>-33,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-34,97</t>
+          <t>-44,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-53,49</t>
+          <t>-40,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-37,41</t>
+          <t>-43,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-41,2</t>
+          <t>-51,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-44,18</t>
+          <t>-44,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -26,14</t>
+          <t>-69,59; -40,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-60,11; -34,91</t>
+          <t>-70,98; -45,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,91; -22,69</t>
+          <t>-57,94; -36,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-50,39; -25,67</t>
+          <t>-47,21; -22,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,07; -24,03</t>
+          <t>-59,38; -32,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -43,16</t>
+          <t>-52,21; -25,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -28,67</t>
+          <t>-53,34; -34,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-49,85; -32,63</t>
+          <t>-60,41; -42,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -36,67</t>
+          <t>-52,2; -35,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-36,92%</t>
+          <t>-53,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-47,84%</t>
+          <t>-58,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>-47,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-38,03%</t>
+          <t>-33,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,97%</t>
+          <t>-44,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-53,49%</t>
+          <t>-40,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,41%</t>
+          <t>-43,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-41,2%</t>
+          <t>-51,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,18%</t>
+          <t>-44,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -26,14</t>
+          <t>-69,59; -40,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,11; -34,91</t>
+          <t>-70,98; -45,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,91; -22,69</t>
+          <t>-57,94; -36,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,39; -25,67</t>
+          <t>-47,21; -22,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,07; -24,03</t>
+          <t>-59,38; -32,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -43,16</t>
+          <t>-52,21; -25,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -28,67</t>
+          <t>-53,34; -34,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,85; -32,63</t>
+          <t>-60,41; -42,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -36,67</t>
+          <t>-52,2; -35,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-28,93</t>
+          <t>-30,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-27,67</t>
+          <t>-30,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-34,88</t>
+          <t>-29,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-28,04</t>
+          <t>-26,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-37,32</t>
+          <t>-37,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,31</t>
+          <t>-35,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-32,81</t>
+          <t>-33,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-35,48</t>
+          <t>-32,28</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,47; -19,92</t>
+          <t>-45,12; -19,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,34; -17,73</t>
+          <t>-46,2; -16,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,22; -24,82</t>
+          <t>-47,35; -16,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,44; -19,71</t>
+          <t>-39,8; -15,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,29; -26,38</t>
+          <t>-52,17; -23,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,99; -22,57</t>
+          <t>-57,01; -19,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,37; -22,76</t>
+          <t>-37,52; -20,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-41,65; -25,09</t>
+          <t>-45,87; -24,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,76; -27,25</t>
+          <t>-45,0; -21,51</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,93%</t>
+          <t>-30,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,67%</t>
+          <t>-30,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,88%</t>
+          <t>-29,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-28,04%</t>
+          <t>-26,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,32%</t>
+          <t>-37,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,31%</t>
+          <t>-35,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-32,81%</t>
+          <t>-33,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,48%</t>
+          <t>-32,28%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,47; -19,92</t>
+          <t>-45,12; -19,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,34; -17,73</t>
+          <t>-46,2; -16,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,22; -24,82</t>
+          <t>-47,35; -16,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,44; -19,71</t>
+          <t>-39,8; -15,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,29; -26,38</t>
+          <t>-52,17; -23,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,99; -22,57</t>
+          <t>-57,01; -19,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,37; -22,76</t>
+          <t>-37,52; -20,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,65; -25,09</t>
+          <t>-45,87; -24,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,76; -27,25</t>
+          <t>-45,0; -21,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-36,92</t>
+          <t>-27,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-47,84</t>
+          <t>-36,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-34,41</t>
+          <t>-36,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-38,03</t>
+          <t>-30,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-34,97</t>
+          <t>-32,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-53,49</t>
+          <t>-52,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-37,41</t>
+          <t>-28,69</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-41,2</t>
+          <t>-34,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-44,18</t>
+          <t>-44,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -26,14</t>
+          <t>-37,07; -18,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-60,11; -34,91</t>
+          <t>-48,42; -25,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-47,91; -22,69</t>
+          <t>-49,1; -25,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-50,39; -25,67</t>
+          <t>-41,49; -21,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,07; -24,03</t>
+          <t>-44,91; -21,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -43,16</t>
+          <t>-63,34; -39,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -28,67</t>
+          <t>-35,26; -21,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,85; -32,63</t>
+          <t>-44,55; -27,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -36,67</t>
+          <t>-52,54; -36,22</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-36,92%</t>
+          <t>-27,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-47,84%</t>
+          <t>-36,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>-36,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-38,03%</t>
+          <t>-30,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,97%</t>
+          <t>-32,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,49%</t>
+          <t>-52,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-37,41%</t>
+          <t>-28,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-41,2%</t>
+          <t>-34,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-44,18%</t>
+          <t>-44,06%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -26,14</t>
+          <t>-37,07; -18,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,11; -34,91</t>
+          <t>-48,42; -25,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,91; -22,69</t>
+          <t>-49,1; -25,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,39; -25,67</t>
+          <t>-41,49; -21,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,07; -24,03</t>
+          <t>-44,91; -21,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -43,16</t>
+          <t>-63,34; -39,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,02; -28,67</t>
+          <t>-35,26; -21,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,85; -32,63</t>
+          <t>-44,55; -27,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -36,67</t>
+          <t>-52,54; -36,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-53,62</t>
+          <t>-50,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-58,55</t>
+          <t>-61,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-47,21</t>
+          <t>-41,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-33,78</t>
+          <t>-48,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-44,67</t>
+          <t>-34,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-40,45</t>
+          <t>-47,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-43,13</t>
+          <t>-49,75</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-51,99</t>
+          <t>-47,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-44,06</t>
+          <t>-44,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -40,19</t>
+          <t>-66,97; -35,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-70,98; -45,61</t>
+          <t>-74,63; -47,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-57,94; -36,41</t>
+          <t>-54,07; -28,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -22,67</t>
+          <t>-64,13; -32,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-59,38; -32,34</t>
+          <t>-47,21; -22,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,21; -25,84</t>
+          <t>-59,93; -33,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -34,53</t>
+          <t>-60,83; -38,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -42,27</t>
+          <t>-56,92; -38,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -35,15</t>
+          <t>-54,11; -35,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-53,62%</t>
+          <t>-50,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-58,55%</t>
+          <t>-61,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-47,21%</t>
+          <t>-41,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-33,78%</t>
+          <t>-48,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-44,67%</t>
+          <t>-34,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,45%</t>
+          <t>-47,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-43,13%</t>
+          <t>-49,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-51,99%</t>
+          <t>-47,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,06%</t>
+          <t>-44,13%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,59; -40,19</t>
+          <t>-66,97; -35,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,98; -45,61</t>
+          <t>-74,63; -47,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,94; -36,41</t>
+          <t>-54,07; -28,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -22,67</t>
+          <t>-64,13; -32,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,38; -32,34</t>
+          <t>-47,21; -22,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,21; -25,84</t>
+          <t>-59,93; -33,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -34,53</t>
+          <t>-60,83; -38,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,41; -42,27</t>
+          <t>-56,92; -38,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -35,15</t>
+          <t>-54,11; -35,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-37,6</t>
+          <t>-61,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-44,86</t>
+          <t>-51,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-40,79</t>
+          <t>-47,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-32,77</t>
+          <t>-29,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-38,64</t>
+          <t>-57,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-44,36</t>
+          <t>-38,83</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-35,28</t>
+          <t>-44,61</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-41,7</t>
+          <t>-54,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-42,47</t>
+          <t>-43,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-44,12; -31,68</t>
+          <t>-76,91; -45,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-52,45; -37,17</t>
+          <t>-68,39; -30,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-46,93; -33,2</t>
+          <t>-61,84; -35,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,3; -26,63</t>
+          <t>-44,1; -16,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,55; -32,0</t>
+          <t>-73,69; -39,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,38; -35,55</t>
+          <t>-51,61; -21,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-39,59; -30,87</t>
+          <t>-56,49; -33,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-46,92; -36,87</t>
+          <t>-66,67; -42,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -37,22</t>
+          <t>-52,96; -31,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-37,6%</t>
+          <t>-61,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-44,86%</t>
+          <t>-51,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,79%</t>
+          <t>-47,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-32,77%</t>
+          <t>-29,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-38,64%</t>
+          <t>-57,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-44,36%</t>
+          <t>-38,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-35,28%</t>
+          <t>-44,61%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-41,7%</t>
+          <t>-54,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-42,47%</t>
+          <t>-43,31%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,12; -31,68</t>
+          <t>-76,91; -45,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,45; -37,17</t>
+          <t>-68,39; -30,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,93; -33,2</t>
+          <t>-61,84; -35,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,3; -26,63</t>
+          <t>-44,1; -16,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,55; -32,0</t>
+          <t>-73,69; -39,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,38; -35,55</t>
+          <t>-51,61; -21,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,59; -30,87</t>
+          <t>-56,49; -33,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,92; -36,87</t>
+          <t>-66,67; -42,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -37,22</t>
+          <t>-52,96; -31,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-37,6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-44,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-40,79</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-32,77</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-38,64</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-44,36</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-35,28</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-41,7</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-42,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-43,91; -31,37</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-52,12; -37,51</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-48,26; -34,4</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-39,52; -27,04</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-45,57; -31,75</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-51,23; -34,8</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-40,45; -31,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-46,98; -36,29</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-47,5; -36,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-37,6%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-44,86%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-40,79%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-32,77%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-38,64%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-44,36%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-35,28%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-41,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-42,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-43,91; -31,37</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-52,12; -37,51</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-48,26; -34,4</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-39,52; -27,04</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-45,57; -31,75</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-51,23; -34,8</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-40,45; -31,2</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-46,98; -36,29</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-47,5; -36,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-45,12; -19,39</t>
+          <t>-43,46; -19,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-46,2; -16,7</t>
+          <t>-46,74; -17,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,35; -16,82</t>
+          <t>-46,97; -15,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,8; -15,76</t>
+          <t>-38,84; -15,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,17; -23,77</t>
+          <t>-50,27; -24,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,01; -19,43</t>
+          <t>-54,51; -19,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,52; -20,02</t>
+          <t>-38,02; -20,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,87; -24,26</t>
+          <t>-44,82; -24,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,0; -21,51</t>
+          <t>-44,15; -21,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,12; -19,39</t>
+          <t>-43,46; -19,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,2; -16,7</t>
+          <t>-46,74; -17,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,35; -16,82</t>
+          <t>-46,97; -15,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,8; -15,76</t>
+          <t>-38,84; -15,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,17; -23,77</t>
+          <t>-50,27; -24,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,01; -19,43</t>
+          <t>-54,51; -19,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,52; -20,02</t>
+          <t>-38,02; -20,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,87; -24,26</t>
+          <t>-44,82; -24,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,0; -21,51</t>
+          <t>-44,15; -21,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,07; -18,47</t>
+          <t>-37,78; -19,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-48,42; -25,21</t>
+          <t>-50,41; -25,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-49,1; -25,85</t>
+          <t>-48,46; -25,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -21,15</t>
+          <t>-42,11; -20,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,91; -21,44</t>
+          <t>-44,82; -21,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -39,14</t>
+          <t>-64,08; -40,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,26; -21,99</t>
+          <t>-35,94; -22,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,55; -27,08</t>
+          <t>-43,81; -27,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-52,54; -36,22</t>
+          <t>-53,68; -35,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,07; -18,47</t>
+          <t>-37,78; -19,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,42; -25,21</t>
+          <t>-50,41; -25,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,1; -25,85</t>
+          <t>-48,46; -25,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,49; -21,15</t>
+          <t>-42,11; -20,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,91; -21,44</t>
+          <t>-44,82; -21,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -39,14</t>
+          <t>-64,08; -40,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,26; -21,99</t>
+          <t>-35,94; -22,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,55; -27,08</t>
+          <t>-43,81; -27,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,54; -36,22</t>
+          <t>-53,68; -35,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-66,97; -35,64</t>
+          <t>-67,33; -34,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-74,63; -47,91</t>
+          <t>-74,6; -45,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-54,07; -28,7</t>
+          <t>-56,5; -28,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-64,13; -32,55</t>
+          <t>-63,93; -33,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -22,61</t>
+          <t>-47,93; -22,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,93; -33,15</t>
+          <t>-61,06; -34,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,83; -38,64</t>
+          <t>-60,78; -38,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-56,92; -38,06</t>
+          <t>-58,18; -38,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-54,11; -35,57</t>
+          <t>-54,02; -34,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,97; -35,64</t>
+          <t>-67,33; -34,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,63; -47,91</t>
+          <t>-74,6; -45,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,07; -28,7</t>
+          <t>-56,5; -28,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,13; -32,55</t>
+          <t>-63,93; -33,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -22,61</t>
+          <t>-47,93; -22,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,93; -33,15</t>
+          <t>-61,06; -34,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,83; -38,64</t>
+          <t>-60,78; -38,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,92; -38,06</t>
+          <t>-58,18; -38,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,11; -35,57</t>
+          <t>-54,02; -34,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-76,91; -45,47</t>
+          <t>-77,56; -45,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-68,39; -30,29</t>
+          <t>-68,41; -33,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-61,84; -35,54</t>
+          <t>-60,7; -35,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -16,51</t>
+          <t>-44,92; -16,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-73,69; -39,74</t>
+          <t>-74,02; -39,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,61; -21,06</t>
+          <t>-52,9; -22,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -33,23</t>
+          <t>-55,8; -33,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-66,67; -42,35</t>
+          <t>-67,21; -42,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-52,96; -31,93</t>
+          <t>-53,25; -32,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,91; -45,47</t>
+          <t>-77,56; -45,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,39; -30,29</t>
+          <t>-68,41; -33,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,84; -35,54</t>
+          <t>-60,7; -35,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -16,51</t>
+          <t>-44,92; -16,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,69; -39,74</t>
+          <t>-74,02; -39,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,61; -21,06</t>
+          <t>-52,9; -22,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,49; -33,23</t>
+          <t>-55,8; -33,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,67; -42,35</t>
+          <t>-67,21; -42,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,96; -31,93</t>
+          <t>-53,25; -32,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -31,37</t>
+          <t>-43,94; -31,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-52,12; -37,51</t>
+          <t>-52,53; -37,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -34,4</t>
+          <t>-47,98; -34,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -27,04</t>
+          <t>-39,21; -25,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -31,75</t>
+          <t>-45,96; -31,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -34,8</t>
+          <t>-52,52; -35,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-40,45; -31,2</t>
+          <t>-39,74; -31,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -36,29</t>
+          <t>-46,83; -36,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-47,5; -36,95</t>
+          <t>-48,03; -37,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -31,37</t>
+          <t>-43,94; -31,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,12; -37,51</t>
+          <t>-52,53; -37,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,26; -34,4</t>
+          <t>-47,98; -34,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -27,04</t>
+          <t>-39,21; -25,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -31,75</t>
+          <t>-45,96; -31,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -34,8</t>
+          <t>-52,52; -35,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,45; -31,2</t>
+          <t>-39,74; -31,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -36,29</t>
+          <t>-46,83; -36,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-47,5; -36,95</t>
+          <t>-48,03; -37,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A01-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-26,26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-37,44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-36,08</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-30,64</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-30,11</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-29,95</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-26,26</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-37,44</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-35,35</t>
+          <t>-30,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-32,28</t>
+          <t>-32,71</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-43,46; -19,33</t>
+          <t>-40,4; -16,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -17,48</t>
+          <t>-51,7; -24,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-46,97; -15,54</t>
+          <t>-58,83; -20,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,84; -15,47</t>
+          <t>-42,47; -17,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,27; -24,03</t>
+          <t>-48,04; -16,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,51; -19,43</t>
+          <t>-46,48; -16,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -20,56</t>
+          <t>-37,22; -20,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,82; -24,3</t>
+          <t>-44,15; -23,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-44,15; -21,36</t>
+          <t>-45,27; -22,13</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-26,26%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-37,44%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-36,08%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-30,64%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-30,11%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-29,95%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-26,26%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-37,44%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,35%</t>
+          <t>-30,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>-32,71%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,46; -19,33</t>
+          <t>-40,4; -16,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -17,48</t>
+          <t>-51,7; -24,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,97; -15,54</t>
+          <t>-58,83; -20,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; -15,47</t>
+          <t>-42,47; -17,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,27; -24,03</t>
+          <t>-48,04; -16,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,51; -19,43</t>
+          <t>-46,48; -16,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -20,56</t>
+          <t>-37,22; -20,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,82; -24,3</t>
+          <t>-44,15; -23,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,15; -21,36</t>
+          <t>-45,27; -22,13</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-30,45</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-32,86</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-53,72</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-27,28</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-36,79</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-36,07</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-30,45</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-32,86</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-52,27</t>
+          <t>-36,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-44,06</t>
+          <t>-45,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,78; -19,54</t>
+          <t>-42,31; -21,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-50,41; -25,21</t>
+          <t>-44,48; -21,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,46; -25,25</t>
+          <t>-66,57; -40,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,11; -20,8</t>
+          <t>-37,01; -18,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,82; -21,54</t>
+          <t>-48,99; -25,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -40,21</t>
+          <t>-49,46; -26,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -22,23</t>
+          <t>-35,53; -22,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,81; -27,0</t>
+          <t>-43,73; -27,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-53,68; -35,7</t>
+          <t>-54,19; -36,54</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-30,45%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-32,86%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-53,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-27,28%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-36,79%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-36,07%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-30,45%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-32,86%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,27%</t>
+          <t>-36,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-44,06%</t>
+          <t>-45,05%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,78; -19,54</t>
+          <t>-42,31; -21,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,41; -25,21</t>
+          <t>-44,48; -21,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,46; -25,25</t>
+          <t>-66,57; -40,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,11; -20,8</t>
+          <t>-37,01; -18,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,82; -21,54</t>
+          <t>-48,99; -25,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -40,21</t>
+          <t>-49,46; -26,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,94; -22,23</t>
+          <t>-35,53; -22,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,81; -27,0</t>
+          <t>-43,73; -27,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,68; -35,7</t>
+          <t>-54,19; -36,54</t>
         </is>
       </c>
     </row>
@@ -1064,34 +1064,34 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-48,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-34,65</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-47,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-50,76</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-61,25</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-41,55</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-48,77</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-34,65</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-47,17</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
           <t>-49,75</t>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-44,13</t>
+          <t>-44,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-67,33; -34,98</t>
+          <t>-64,72; -33,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-74,6; -45,95</t>
+          <t>-49,11; -22,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-56,5; -28,86</t>
+          <t>-60,92; -33,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-63,93; -33,23</t>
+          <t>-67,41; -35,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -22,49</t>
+          <t>-73,71; -46,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-61,06; -34,27</t>
+          <t>-55,11; -29,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,78; -38,16</t>
+          <t>-60,0; -37,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,18; -38,33</t>
+          <t>-56,78; -37,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-54,02; -34,06</t>
+          <t>-54,31; -34,96</t>
         </is>
       </c>
     </row>
@@ -1170,34 +1170,34 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-48,77%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-34,65%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-47,28%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-50,76%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-61,25%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>-41,55%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-48,77%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-34,65%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-47,17%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-49,75%</t>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,13%</t>
+          <t>-44,1%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,33; -34,98</t>
+          <t>-64,72; -33,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,6; -45,95</t>
+          <t>-49,11; -22,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,5; -28,86</t>
+          <t>-60,92; -33,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,93; -33,23</t>
+          <t>-67,41; -35,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -22,49</t>
+          <t>-73,71; -46,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,06; -34,27</t>
+          <t>-55,11; -29,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,78; -38,16</t>
+          <t>-60,0; -37,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,18; -38,33</t>
+          <t>-56,78; -37,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,02; -34,06</t>
+          <t>-54,31; -34,96</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-29,11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-57,7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-32,47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-61,56</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-51,57</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-47,41</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-29,11</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-57,7</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-38,83</t>
+          <t>-47,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-43,31</t>
+          <t>-39,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-77,56; -45,86</t>
+          <t>-45,74; -16,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-68,41; -33,82</t>
+          <t>-74,94; -39,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-60,7; -35,74</t>
+          <t>-55,19; -11,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-44,92; -16,97</t>
+          <t>-76,19; -44,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-74,02; -39,66</t>
+          <t>-69,77; -33,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-52,9; -22,23</t>
+          <t>-60,67; -35,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-55,8; -33,53</t>
+          <t>-56,26; -32,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-67,21; -42,47</t>
+          <t>-68,14; -41,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-53,25; -32,24</t>
+          <t>-52,68; -21,38</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-29,11%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-57,7%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-32,47%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-61,56%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-51,57%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-47,41%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-29,11%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-57,7%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>-47,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-43,31%</t>
+          <t>-39,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,56; -45,86</t>
+          <t>-45,74; -16,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,41; -33,82</t>
+          <t>-74,94; -39,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,7; -35,74</t>
+          <t>-55,19; -11,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,92; -16,97</t>
+          <t>-76,19; -44,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,02; -39,66</t>
+          <t>-69,77; -33,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,9; -22,23</t>
+          <t>-60,67; -35,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,8; -33,53</t>
+          <t>-56,26; -32,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,21; -42,47</t>
+          <t>-68,14; -41,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,25; -32,24</t>
+          <t>-52,68; -21,38</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-32,77</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-38,64</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-41,47</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-37,6</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-44,86</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-40,79</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-32,77</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-38,64</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-44,36</t>
+          <t>-40,97</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-42,47</t>
+          <t>-41,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-43,94; -31,16</t>
+          <t>-39,3; -26,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-52,53; -37,48</t>
+          <t>-46,55; -32,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-47,98; -34,08</t>
+          <t>-51,3; -23,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -25,94</t>
+          <t>-44,12; -31,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-45,96; -31,5</t>
+          <t>-52,45; -37,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-52,52; -35,72</t>
+          <t>-47,0; -33,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-39,74; -31,36</t>
+          <t>-39,59; -30,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-46,83; -36,71</t>
+          <t>-46,92; -36,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -37,43</t>
+          <t>-47,14; -31,58</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-32,77%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-38,64%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-41,47%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-37,6%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-44,86%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-40,79%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-32,77%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-38,64%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-44,36%</t>
+          <t>-40,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-42,47%</t>
+          <t>-41,21%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-43,94; -31,16</t>
+          <t>-39,3; -26,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-52,53; -37,48</t>
+          <t>-46,55; -32,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-47,98; -34,08</t>
+          <t>-51,3; -23,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -25,94</t>
+          <t>-44,12; -31,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,96; -31,5</t>
+          <t>-52,45; -37,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,52; -35,72</t>
+          <t>-47,0; -33,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,74; -31,36</t>
+          <t>-39,59; -30,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-46,83; -36,71</t>
+          <t>-46,92; -36,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -37,43</t>
+          <t>-47,14; -31,58</t>
         </is>
       </c>
     </row>
